--- a/open/meta/dataset_info.xlsx
+++ b/open/meta/dataset_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Dacon\open\meta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Dacon\open\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7567E66-1694-43D6-BDA9-E201FCD4B661}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61E85D5-6E29-4AEA-B180-6D69ACC1EF0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="176">
   <si>
     <t>Feature</t>
   </si>
@@ -505,11 +505,83 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>범위(Range)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>최소</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>무게가 0인데 면적은 존재</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>상관관계 가장 높은 변수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y_03</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y_01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y_05</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y_04</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y_10</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y_05, Y_11</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y_09, 12, 13, 14</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y_08, 12, 13, 14</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y_08~14</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y_08,09,12,13,14</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>평가 가중여부</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGBM RMSE 성능</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>성능 영향큼</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>개별 모델링 LGBM 외 다른 모델 및 특징공학 및 최적화 진행</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -517,7 +589,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -677,6 +749,45 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1103,8 +1214,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1464,8 +1593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1577,6 +1706,9 @@
       <c r="C9" t="s">
         <v>144</v>
       </c>
+      <c r="D9" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1587,6 +1719,9 @@
       </c>
       <c r="C10" t="s">
         <v>144</v>
+      </c>
+      <c r="D10" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -2362,20 +2497,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C1" t="s">
         <v>142</v>
@@ -2387,10 +2525,19 @@
         <v>155</v>
       </c>
       <c r="F1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="G1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>114</v>
       </c>
@@ -2400,8 +2547,35 @@
       <c r="C2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>1.3538140000000001</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.35622300000000001</v>
+      </c>
+      <c r="F2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.34570159614264101</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -2411,8 +2585,26 @@
       <c r="C3">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>1.057267</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.386266</v>
+      </c>
+      <c r="F3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.37625777210582501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -2422,9 +2614,27 @@
       <c r="C4">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="D4">
+        <v>1.0140020000000001</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.36149199999999998</v>
+      </c>
+      <c r="F4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.35300931477428898</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B5">
@@ -2433,9 +2643,33 @@
       <c r="C5">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="D5">
+        <v>13.621191</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2.6866319999999999</v>
+      </c>
+      <c r="F5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I5" s="6">
+        <v>2.53909631048192</v>
+      </c>
+      <c r="J5" t="s">
+        <v>174</v>
+      </c>
+      <c r="K5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>122</v>
       </c>
       <c r="B6">
@@ -2444,9 +2678,33 @@
       <c r="C6">
         <v>36.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="D6">
+        <v>31.290467</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2.5432220000000001</v>
+      </c>
+      <c r="F6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I6" s="5">
+        <v>2.4637267943559098</v>
+      </c>
+      <c r="J6" t="s">
+        <v>174</v>
+      </c>
+      <c r="K6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>124</v>
       </c>
       <c r="B7">
@@ -2455,8 +2713,32 @@
       <c r="C7">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>16.529381999999998</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1.893014</v>
+      </c>
+      <c r="F7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1.6563502475155401</v>
+      </c>
+      <c r="J7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -2466,8 +2748,26 @@
       <c r="C8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>3.1550539999999998</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.41893999999999998</v>
+      </c>
+      <c r="F8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.40519289861997798</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>128</v>
       </c>
@@ -2477,8 +2777,23 @@
       <c r="C9">
         <v>-24</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>-26.294839</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.66053700000000004</v>
+      </c>
+      <c r="F9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -2488,8 +2803,23 @@
       <c r="C10">
         <v>-24</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>-26.308623000000001</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.65358000000000005</v>
+      </c>
+      <c r="F10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>132</v>
       </c>
@@ -2499,8 +2829,23 @@
       <c r="C11">
         <v>-20</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>-22.400061999999998</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.92095199999999999</v>
+      </c>
+      <c r="F11" t="s">
+        <v>167</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>134</v>
       </c>
@@ -2510,8 +2855,23 @@
       <c r="C12">
         <v>26.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>24.325061000000002</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.83019699999999996</v>
+      </c>
+      <c r="F12" t="s">
+        <v>167</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>136</v>
       </c>
@@ -2521,8 +2881,23 @@
       <c r="C13">
         <v>-24</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>-26.237762</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.65632900000000005</v>
+      </c>
+      <c r="F13" t="s">
+        <v>168</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>138</v>
       </c>
@@ -2532,8 +2907,23 @@
       <c r="C14">
         <v>-24</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>-26.233868999999999</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.65508999999999995</v>
+      </c>
+      <c r="F14" t="s">
+        <v>168</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>140</v>
       </c>
@@ -2542,6 +2932,24 @@
       </c>
       <c r="C15">
         <v>-24</v>
+      </c>
+      <c r="D15">
+        <v>-26.245868000000002</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.65598900000000004</v>
+      </c>
+      <c r="F15" t="s">
+        <v>168</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.62098097469287905</v>
       </c>
     </row>
   </sheetData>
